--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -556,7 +556,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -54,9 +54,6 @@
     <t>Real Estate</t>
   </si>
   <si>
-    <t>Least Square Method</t>
-  </si>
-  <si>
     <t>Application</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Random Forest and Ensemble</t>
+  </si>
+  <si>
+    <t>Least Square Method, Gradient Descent</t>
   </si>
 </sst>
 </file>
@@ -200,12 +200,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -556,7 +559,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -564,27 +567,27 @@
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -605,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -623,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -647,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -699,10 +702,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -720,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
         <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -758,10 +761,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -813,10 +816,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -834,10 +837,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
         <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -855,10 +858,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
         <v>25</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -876,10 +879,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
         <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -894,15 +897,15 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
         <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,6 +133,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,7 +560,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
